--- a/Keywords&Responses.xlsx
+++ b/Keywords&Responses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rsrko\Documents\UiPath\Assignment 3 Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zohra magho\Documents\UiPath\Assignment3RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC6031-88F3-42E6-8368-D204E4F982C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A467ED-0F85-49BF-B9B2-6B4B59A76BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Keywords</t>
   </si>
@@ -51,6 +51,36 @@
   </si>
   <si>
     <t>New Student</t>
+  </si>
+  <si>
+    <t>Bus Pass</t>
+  </si>
+  <si>
+    <t>ME card</t>
+  </si>
+  <si>
+    <t>Office license</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Bus passes are currently being processed. We will let you know when they are ready</t>
+  </si>
+  <si>
+    <t>ME card are currently being processed. We will let you know when they are ready</t>
+  </si>
+  <si>
+    <t>Your office code is 1234-70606</t>
+  </si>
+  <si>
+    <t>Graduation has been postponed to this summer.</t>
+  </si>
+  <si>
+    <t>Kindly refer the matter to the president</t>
   </si>
 </sst>
 </file>
@@ -422,15 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FA5C7-DFB6-4241-B3DA-4565C8FD905B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -446,12 +480,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
